--- a/biology/Histoire de la zoologie et de la botanique/Nicolas_Bové/Nicolas_Bové.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nicolas_Bové/Nicolas_Bové.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Bov%C3%A9</t>
+          <t>Nicolas_Bové</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Bové, né le 1er janvier 1802 à Mühlenbach (Luxembourg) et mort le 22 septembre 1842 à Birkadem (Algérie), est un botaniste et explorateur luxembourgeois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Bov%C3%A9</t>
+          <t>Nicolas_Bové</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au milieu des années 1820, il fut « chef de carré » au Jardin des plantes du Muséum national d'histoire naturelle à Paris et collaborateur de l'agronome français Oscar Leclerc-Thouin. Avec l'aide de celui-ci, il devint en 1829 « directeur des cultures de S.A. Ibrahim-Pacha », fils du dirigeant de l'Égypte Méhémet Ali. En 1834, il entreprit une exploration de l'Algérie et devint directeur d'un établissement d'acclimatation. Il y mourut, probablement, de la malaria en 1842.
 Nicolas Bové est l'arrière-arrière-grand-oncle de José Bové.
-Son compatriote luxembourgeois Koltz rédigea en 1869 sa notice biographique pour le Bulletin de la Société royale de botanique de Belgique (consultable en ligne[1])
+Son compatriote luxembourgeois Koltz rédigea en 1869 sa notice biographique pour le Bulletin de la Société royale de botanique de Belgique (consultable en ligne)
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas_Bov%C3%A9</t>
+          <t>Nicolas_Bové</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>L'herbier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des spécimens de son herbier de Nicolas Bové sont dispersés entre diverses institutions :
 Botanische Staatssammlung München (en) ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicolas_Bov%C3%A9</t>
+          <t>Nicolas_Bové</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Espèces nommées d'après Bové</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anthemis bovei[2]
+Anthemis bovei
 Biarum bovei
 Blumea bovei
 Conyza bovei
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicolas_Bov%C3%A9</t>
+          <t>Nicolas_Bové</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,7 +656,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nicolas Bové, Relation abrégée d'un voyage botanique en Égypte, dans les trois Arabies, en Palestine et en Syrie, in Annales des sciences naturelles, 2e série, botanique, tome 1, 1834, p. 72-87, 161-179, 230-239.
 Nicolas Bové, Bericht über eine Reise auf den Berg Sinai, nach Gaza, Jerusalem, Damas und Beyrut, in Das Ausland. Ein Tagblatt für Kunde des geistigen und sittlichen Lebens der Völker, 1835, p. 999–1000, 1004, 1011-1012, 1016, 1024, 1027-1028.</t>
